--- a/DATA_goal/Junction_Flooding_234.xlsx
+++ b/DATA_goal/Junction_Flooding_234.xlsx
@@ -451,7 +451,7 @@
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
@@ -464,11 +464,11 @@
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
@@ -655,103 +655,103 @@
         <v>41666.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>12.34</v>
+        <v>1.23</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>8.24</v>
+        <v>0.82</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.47</v>
+        <v>0.35</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>26.72</v>
+        <v>2.67</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>19.8</v>
+        <v>1.98</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>9.41</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>27.82</v>
+        <v>2.78</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>15.12</v>
+        <v>1.51</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>5.95</v>
+        <v>0.6</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>8.67</v>
+        <v>0.87</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>10.52</v>
+        <v>1.05</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>11.37</v>
+        <v>1.14</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.13</v>
+        <v>0.31</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>9.779999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>13.32</v>
+        <v>1.33</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>8.83</v>
+        <v>0.88</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.74</v>
+        <v>0.27</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.54</v>
+        <v>0.15</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>141.4</v>
+        <v>14.14</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>27.01</v>
+        <v>2.7</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>9.02</v>
+        <v>0.9</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>17.24</v>
+        <v>1.72</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>8.880000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.65</v>
+        <v>0.26</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>15.25</v>
+        <v>1.53</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>7.97</v>
+        <v>0.8</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>7.4</v>
+        <v>0.74</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>8.52</v>
+        <v>0.85</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>11.03</v>
+        <v>1.1</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.86</v>
+        <v>0.29</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>25.23</v>
+        <v>2.52</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>4.73</v>
+        <v>0.47</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>11.28</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41666.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>21.79</v>
+        <v>2.18</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>15.93</v>
+        <v>1.59</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.94</v>
+        <v>0.19</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>47.59</v>
+        <v>4.76</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>38.14</v>
+        <v>3.81</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>16.98</v>
+        <v>1.7</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>63.48</v>
+        <v>6.35</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>26.53</v>
+        <v>2.65</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>11.56</v>
+        <v>1.16</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>16.95</v>
+        <v>1.7</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>19.04</v>
+        <v>1.9</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>20.32</v>
+        <v>2.03</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>5.51</v>
+        <v>0.55</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>17.14</v>
+        <v>1.71</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>24.21</v>
+        <v>2.42</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>14.72</v>
+        <v>1.47</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.42</v>
+        <v>0.14</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.16</v>
+        <v>0.12</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>253.63</v>
+        <v>25.36</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>47.91</v>
+        <v>4.79</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>15.82</v>
+        <v>1.58</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>31.88</v>
+        <v>3.19</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>16.67</v>
+        <v>1.67</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.82</v>
+        <v>0.28</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>31.8</v>
+        <v>3.18</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>13.98</v>
+        <v>1.4</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>12.53</v>
+        <v>1.25</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>14.69</v>
+        <v>1.47</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>19.96</v>
+        <v>2</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.16</v>
+        <v>0.12</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>58.1</v>
+        <v>5.81</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>8.77</v>
+        <v>0.88</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>19.78</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41666.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>6.82</v>
+        <v>0.68</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>4.86</v>
+        <v>0.49</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.98</v>
+        <v>0.1</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>15.03</v>
+        <v>1.5</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>11.6</v>
+        <v>1.16</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>5.26</v>
+        <v>0.53</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>25.92</v>
+        <v>2.59</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>8.380000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>3.57</v>
+        <v>0.36</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>5.03</v>
+        <v>0.5</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>6</v>
+        <v>0.6</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>6.49</v>
+        <v>0.65</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.75</v>
+        <v>0.17</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>5.41</v>
+        <v>0.54</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>7.6</v>
+        <v>0.76</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>4.86</v>
+        <v>0.49</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.88</v>
+        <v>0.09</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.53</v>
+        <v>0.05</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>75.12</v>
+        <v>7.51</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>15.37</v>
+        <v>1.54</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>10.04</v>
+        <v>1</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>5.17</v>
+        <v>0.52</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.09</v>
+        <v>0.11</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>12.18</v>
+        <v>1.22</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>4.41</v>
+        <v>0.44</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>4.07</v>
+        <v>0.41</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>4.75</v>
+        <v>0.47</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>6.28</v>
+        <v>0.63</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.73</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>24.12</v>
+        <v>2.41</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.67</v>
+        <v>0.27</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>6.25</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="5">
@@ -967,16 +967,16 @@
         <v>41666.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.39</v>
+        <v>0.04</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.97</v>
+        <v>0.1</v>
       </c>
       <c r="F5" s="4" t="n">
         <v>0</v>
@@ -985,85 +985,85 @@
         <v>0</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>6.67</v>
+        <v>0.67</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.58</v>
+        <v>0.06</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.33</v>
+        <v>0.03</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="N5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.38</v>
+        <v>0.04</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.59</v>
+        <v>0.06</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.57</v>
+        <v>0.06</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.62</v>
+        <v>0.06</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.24</v>
+        <v>0.02</v>
       </c>
       <c r="T5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.5</v>
+        <v>0.15</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.35</v>
+        <v>0.03</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.93</v>
+        <v>0.09</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.37</v>
+        <v>0.04</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.33</v>
+        <v>0.03</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.94</v>
+        <v>0.29</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.31</v>
+        <v>0.03</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.46</v>
+        <v>0.05</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.4</v>
+        <v>0.04</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.51</v>
+        <v>0.05</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>6.71</v>
+        <v>0.67</v>
       </c>
       <c r="AG5" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AH5" s="4" t="n">
         <v>0.05</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>0.46</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41666.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>14.62</v>
+        <v>1.46</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>10.86</v>
+        <v>1.09</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.92</v>
+        <v>0.09</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>31.92</v>
+        <v>3.19</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>25.79</v>
+        <v>2.58</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>11.75</v>
+        <v>1.18</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>39.41</v>
+        <v>3.94</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>17.8</v>
+        <v>1.78</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>7.78</v>
+        <v>0.78</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>11.72</v>
+        <v>1.17</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>12.77</v>
+        <v>1.28</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>13.34</v>
+        <v>1.33</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>3.61</v>
+        <v>0.36</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>11.5</v>
+        <v>1.15</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>16.29</v>
+        <v>1.63</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>9.74</v>
+        <v>0.97</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.62</v>
+        <v>0.06</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.61</v>
+        <v>0.06</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>168.2</v>
+        <v>16.82</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>31.96</v>
+        <v>3.2</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>10.62</v>
+        <v>1.06</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>21.4</v>
+        <v>2.14</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>11.28</v>
+        <v>1.13</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>1.74</v>
+        <v>0.17</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>19.76</v>
+        <v>1.98</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>9.380000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>8.35</v>
+        <v>0.83</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>9.81</v>
+        <v>0.98</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>13.47</v>
+        <v>1.35</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.4</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>35.51</v>
+        <v>3.55</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>5.94</v>
+        <v>0.59</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>13.28</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41666.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>0.51</v>
+        <v>0.05</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>0.28</v>
+        <v>0.03</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.37</v>
+        <v>0.04</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>1.21</v>
+        <v>0.12</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>0.68</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>8.5</v>
+        <v>0.85</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>0.7</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>0.38</v>
+        <v>0.04</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>0.27</v>
+        <v>0.03</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>0.45</v>
+        <v>0.05</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>0.35</v>
+        <v>0.04</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>0.45</v>
+        <v>0.05</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>0.82</v>
+        <v>0.08</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.42</v>
+        <v>0.04</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.16</v>
+        <v>0.02</v>
       </c>
       <c r="T7" s="4" t="n">
         <v>0</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>1.89</v>
+        <v>0.19</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>0.42</v>
+        <v>0.04</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>1.37</v>
+        <v>0.14</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>0.25</v>
+        <v>0.03</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>3.89</v>
+        <v>0.39</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>0.37</v>
+        <v>0.04</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>0.45</v>
+        <v>0.04</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>0.48</v>
+        <v>0.05</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>0.51</v>
+        <v>0.05</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.34</v>
+        <v>0.03</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>8.57</v>
+        <v>0.86</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>0.14</v>
+        <v>0.01</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>0.55</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41666.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>9.449999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>7.02</v>
+        <v>0.7</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.62</v>
+        <v>0.06</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>20.66</v>
+        <v>2.07</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>16.65</v>
+        <v>1.66</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>7.67</v>
+        <v>0.77</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>25.59</v>
+        <v>2.56</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>11.52</v>
+        <v>1.15</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>7.56</v>
+        <v>0.76</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>8.27</v>
+        <v>0.83</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>8.640000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>2.35</v>
+        <v>0.23</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>7.44</v>
+        <v>0.74</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>10.5</v>
+        <v>1.05</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>6.33</v>
+        <v>0.63</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.4</v>
+        <v>0.04</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>106.12</v>
+        <v>10.61</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>20.6</v>
+        <v>2.06</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>6.87</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>13.74</v>
+        <v>1.37</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>7.27</v>
+        <v>0.73</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>1.14</v>
+        <v>0.11</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>12.62</v>
+        <v>1.26</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>6.07</v>
+        <v>0.61</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>5.41</v>
+        <v>0.54</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>6.36</v>
+        <v>0.64</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>8.720000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.29</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>22.95</v>
+        <v>2.3</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>3.83</v>
+        <v>0.38</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>8.59</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="9">
@@ -1383,52 +1383,52 @@
         <v>41666.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
       <c r="C9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="I9" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="J9" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="P9" s="4" t="n">
         <v>0.04</v>
       </c>
-      <c r="D9" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>5.12</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>0.41</v>
-      </c>
       <c r="Q9" s="4" t="n">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="R9" s="4" t="n">
         <v>0</v>
@@ -1440,46 +1440,46 @@
         <v>0</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>0.98</v>
+        <v>0.1</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>0.14</v>
+        <v>0.01</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>0.24</v>
+        <v>0.02</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>0.17</v>
+        <v>0.02</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>2.54</v>
+        <v>0.25</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>0.22</v>
+        <v>0.02</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>0.21</v>
+        <v>0.02</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="AE9" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>5.81</v>
+        <v>0.58</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>0.21</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41666.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>22.14</v>
+        <v>2.21</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>16.58</v>
+        <v>1.66</v>
       </c>
       <c r="D10" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="F10" s="4" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="G10" s="4" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H10" s="4" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="I10" s="4" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="J10" s="4" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="K10" s="4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L10" s="4" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="M10" s="4" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="N10" s="4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="O10" s="4" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="P10" s="4" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="Q10" s="4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R10" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="S10" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="T10" s="4" t="n">
+        <v>25.76</v>
+      </c>
+      <c r="U10" s="4" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="V10" s="4" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="W10" s="4" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="X10" s="4" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="Y10" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="Z10" s="4" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AA10" s="4" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AB10" s="4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AC10" s="4" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AD10" s="4" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AE10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="4" t="n">
+        <v>5.53</v>
+      </c>
+      <c r="AG10" s="4" t="n">
         <v>0.91</v>
       </c>
-      <c r="E10" s="4" t="n">
-        <v>48.01</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>40.1</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>60.96</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>26.88</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>11.87</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>17.97</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>19.38</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>20.66</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>5.56</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>17.37</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>24.76</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>14.36</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>257.64</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>48.42</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>16.03</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>32.68</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>17.13</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>30.73</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>14.16</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>12.49</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>14.69</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>20.29</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>55.26</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>9.08</v>
-      </c>
       <c r="AH10" s="4" t="n">
-        <v>20.04</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_234.xlsx
+++ b/DATA_goal/Junction_Flooding_234.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,24 +451,24 @@
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41666.34027777778</v>
+        <v>44915.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.23</v>
+        <v>0.59</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.82</v>
+        <v>0.19</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.35</v>
+        <v>0.14</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.67</v>
+        <v>0.78</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.98</v>
+        <v>0.37</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>2.78</v>
+        <v>0.63</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.51</v>
+        <v>0.22</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.6</v>
+        <v>0.08</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.87</v>
+        <v>0.12</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.05</v>
+        <v>0.24</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.14</v>
+        <v>0.55</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.31</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.98</v>
+        <v>0.09</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.33</v>
+        <v>0.25</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.88</v>
+        <v>0.15</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.27</v>
+        <v>0.13</v>
       </c>
       <c r="S2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Z2" s="4" t="n">
         <v>0.15</v>
       </c>
-      <c r="T2" s="4" t="n">
-        <v>14.14</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>1.53</v>
-      </c>
       <c r="AA2" s="4" t="n">
-        <v>0.8</v>
+        <v>0.16</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.74</v>
+        <v>0.06</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.85</v>
+        <v>0.2</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.1</v>
+        <v>0.3</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.29</v>
+        <v>0.02</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.52</v>
+        <v>0.25</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.47</v>
+        <v>0.06</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.13</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41666.34722222222</v>
+        <v>44915.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.18</v>
+        <v>2.19</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.19</v>
+        <v>0.12</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>4.76</v>
+        <v>4.56</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.81</v>
+        <v>3.67</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.7</v>
+        <v>1.56</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>6.35</v>
+        <v>5.62</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.65</v>
+        <v>2.45</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.16</v>
+        <v>1.08</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>2.03</v>
+        <v>2.02</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.55</v>
+        <v>0.52</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.71</v>
+        <v>1.54</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.42</v>
+        <v>2.3</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.47</v>
+        <v>1.33</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.14</v>
+        <v>0.08</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.12</v>
+        <v>0.05</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>25.36</v>
+        <v>23.83</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>4.79</v>
+        <v>4.5</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>3.19</v>
+        <v>3.07</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.28</v>
+        <v>0.21</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>3.18</v>
+        <v>2.8</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.25</v>
+        <v>1.1</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.47</v>
+        <v>1.37</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.12</v>
+        <v>0.02</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>5.81</v>
+        <v>4.97</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.98</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41666.35416666666</v>
+        <v>44915.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.68</v>
+        <v>0.6</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.49</v>
+        <v>0.41</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.16</v>
+        <v>0.92</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.53</v>
+        <v>0.37</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>2.59</v>
+        <v>2.17</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.84</v>
+        <v>0.61</v>
       </c>
       <c r="J4" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="O4" s="4" t="n">
         <v>0.36</v>
       </c>
-      <c r="K4" s="4" t="n">
+      <c r="P4" s="4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AD4" s="4" t="n">
         <v>0.5</v>
       </c>
-      <c r="L4" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>7.51</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AC4" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="AD4" s="4" t="n">
-        <v>0.63</v>
-      </c>
       <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>2.41</v>
+        <v>1.95</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.27</v>
+        <v>0.2</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.62</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41666.36111111111</v>
+        <v>44915.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.04</v>
+        <v>1.26</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.91</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>0.06</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.1</v>
+        <v>2.65</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>0.67</v>
+        <v>3.54</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.06</v>
+        <v>1.43</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.63</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.95</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.03</v>
+        <v>1.05</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.01</v>
+        <v>1.16</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="O5" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="R5" s="4" t="n">
         <v>0.04</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.06</v>
       </c>
       <c r="S5" s="4" t="n">
         <v>0.02</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>0</v>
+        <v>13.55</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>0.15</v>
+        <v>2.62</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.89</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.09</v>
+        <v>1.79</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.95</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.12</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0.29</v>
+        <v>1.7</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.77</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.64</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.8</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.04</v>
+        <v>1.11</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>0.67</v>
+        <v>3.14</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.48</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.05</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41666.36805555555</v>
+        <v>44915.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>1.46</v>
+        <v>23.49</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1.09</v>
+        <v>17.41</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.09</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>3.19</v>
+        <v>50.44</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>2.58</v>
+        <v>41.32</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.18</v>
+        <v>17.89</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>3.94</v>
+        <v>68.51000000000001</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.78</v>
+        <v>27.74</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.78</v>
+        <v>12.35</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>1.17</v>
+        <v>18.5</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>1.28</v>
+        <v>20.13</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>1.33</v>
+        <v>21.72</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.36</v>
+        <v>5.8</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>1.15</v>
+        <v>17.7</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>1.63</v>
+        <v>25.8</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>0.97</v>
+        <v>14.92</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.06</v>
+        <v>0.44</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.06</v>
+        <v>0.59</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>16.82</v>
+        <v>267.22</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>3.2</v>
+        <v>50.42</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>1.06</v>
+        <v>16.8</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>2.14</v>
+        <v>34.28</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>1.13</v>
+        <v>18.07</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.17</v>
+        <v>2.36</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>1.98</v>
+        <v>33.55</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>14.71</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>0.83</v>
+        <v>12.68</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>0.98</v>
+        <v>15.27</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>1.35</v>
+        <v>21.26</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>3.55</v>
+        <v>61.71</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.59</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>1.33</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41666.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41666.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>10.61</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41666.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41666.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>4.01</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>25.76</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>4.84</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>5.53</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41666.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>17.82</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>13.34</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>38.66</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>32.36</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>14.55</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>55.31</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>21.64</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>9.56</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>14.49</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>15.64</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>16.65</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>13.99</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>19.96</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>11.57</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>205.88</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>39.15</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>12.91</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>10.06</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>11.84</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>16.34</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>50.42</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>16.14</v>
+        <v>20.69</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_234.xlsx
+++ b/DATA_goal/Junction_Flooding_234.xlsx
@@ -452,18 +452,18 @@
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
@@ -655,103 +655,103 @@
         <v>44915.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.59</v>
+        <v>5.88</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.19</v>
+        <v>1.94</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.14</v>
+        <v>1.36</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.78</v>
+        <v>7.77</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.37</v>
+        <v>3.74</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.1</v>
+        <v>0.96</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.63</v>
+        <v>6.28</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.17</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.76</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.12</v>
+        <v>1.22</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.24</v>
+        <v>2.36</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.55</v>
+        <v>5.49</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.88</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.49</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.15</v>
+        <v>1.48</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.13</v>
+        <v>1.26</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>2.58</v>
+        <v>25.8</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0.55</v>
+        <v>5.51</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.33</v>
+        <v>3.3</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.39</v>
+        <v>3.94</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.8</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.25</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.15</v>
+        <v>1.46</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.63</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.59</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.2</v>
+        <v>2.05</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.3</v>
+        <v>3.03</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.19</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.55</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.59</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.18</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44915.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.19</v>
+        <v>21.86</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.56</v>
+        <v>15.59</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.21</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>4.56</v>
+        <v>45.64</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.67</v>
+        <v>36.67</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.56</v>
+        <v>15.6</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>5.62</v>
+        <v>56.19</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.45</v>
+        <v>24.46</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.08</v>
+        <v>10.81</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.62</v>
+        <v>16.22</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.8</v>
+        <v>18.02</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>2.02</v>
+        <v>20.23</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.52</v>
+        <v>5.19</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.54</v>
+        <v>15.4</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.3</v>
+        <v>22.97</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.33</v>
+        <v>13.27</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.47</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>23.83</v>
+        <v>238.32</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>4.5</v>
+        <v>44.99</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.54</v>
+        <v>15.36</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>3.07</v>
+        <v>30.73</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.64</v>
+        <v>16.38</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.21</v>
+        <v>2.11</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.8</v>
+        <v>28.05</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.31</v>
+        <v>13.15</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.1</v>
+        <v>11.01</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.37</v>
+        <v>13.73</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.92</v>
+        <v>19.19</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.17</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>4.97</v>
+        <v>49.71</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.82</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.83</v>
+        <v>18.3</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44915.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.6</v>
+        <v>6.03</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.41</v>
+        <v>4.07</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.49</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.2</v>
+        <v>11.95</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.92</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.37</v>
+        <v>3.72</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>2.17</v>
+        <v>21.72</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.61</v>
+        <v>6.06</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.26</v>
+        <v>2.62</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.39</v>
+        <v>3.91</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.46</v>
+        <v>4.61</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.61</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.13</v>
+        <v>1.34</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.36</v>
+        <v>3.59</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.59</v>
+        <v>5.95</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.34</v>
+        <v>3.37</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.44</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>5.54</v>
+        <v>55.42</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.18</v>
+        <v>11.83</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.41</v>
+        <v>4.08</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.82</v>
+        <v>8.24</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.44</v>
+        <v>4.37</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.54</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.98</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.34</v>
+        <v>3.36</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.26</v>
+        <v>2.59</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.36</v>
+        <v>3.59</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.5</v>
+        <v>5.01</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.14</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.95</v>
+        <v>19.45</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.2</v>
+        <v>1.97</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.45</v>
+        <v>4.54</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44915.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.26</v>
+        <v>12.55</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.91</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.62</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.65</v>
+        <v>26.47</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.14</v>
+        <v>21.4</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.91</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>3.54</v>
+        <v>35.45</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.43</v>
+        <v>14.31</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.63</v>
+        <v>6.28</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.95</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.05</v>
+        <v>10.48</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.16</v>
+        <v>11.63</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.3</v>
+        <v>3.02</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.9</v>
+        <v>8.98</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.34</v>
+        <v>13.4</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.77</v>
+        <v>7.75</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.4</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.25</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>13.55</v>
+        <v>135.53</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.62</v>
+        <v>26.18</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.89</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.79</v>
+        <v>17.87</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.95</v>
+        <v>9.5</v>
       </c>
       <c r="Y5" s="4" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>17.01</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>11.14</v>
+      </c>
+      <c r="AE5" s="4" t="n">
         <v>0.12</v>
       </c>
-      <c r="Z5" s="4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.01</v>
-      </c>
       <c r="AF5" s="4" t="n">
-        <v>3.14</v>
+        <v>31.35</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.48</v>
+        <v>4.79</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.07</v>
+        <v>10.67</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_234.xlsx
+++ b/DATA_goal/Junction_Flooding_234.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44915.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>5.88</v>
+        <v>5.885</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.94</v>
+        <v>1.942</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.36</v>
+        <v>1.363</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>7.77</v>
+        <v>7.767</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.74</v>
+        <v>3.737</v>
       </c>
       <c r="G2" s="4" t="n">
         <v>0.96</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>6.28</v>
+        <v>6.281</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.17</v>
+        <v>2.168</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.76</v>
+        <v>0.758</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.22</v>
+        <v>1.218</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>2.36</v>
+        <v>2.359</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>5.49</v>
+        <v>5.493</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.67</v>
+        <v>0.668</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.88</v>
+        <v>0.884</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.49</v>
+        <v>2.495</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.48</v>
+        <v>1.484</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.26</v>
+        <v>1.256</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>25.8</v>
+        <v>25.797</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>5.51</v>
+        <v>5.514</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>3.3</v>
+        <v>3.303</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.94</v>
+        <v>3.938</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>2.8</v>
+        <v>2.803</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.25</v>
+        <v>0.246</v>
       </c>
       <c r="Z2" s="4" t="n">
         <v>1.46</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.63</v>
+        <v>1.634</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.59</v>
+        <v>0.588</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.05</v>
+        <v>2.048</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>3.03</v>
+        <v>3.034</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.19</v>
+        <v>0.186</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.55</v>
+        <v>2.547</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.59</v>
+        <v>0.594</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.83</v>
+        <v>1.826</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44915.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>21.86</v>
+        <v>21.859</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>15.59</v>
+        <v>15.593</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.21</v>
+        <v>1.208</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>45.64</v>
+        <v>45.641</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>36.67</v>
+        <v>36.669</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>15.6</v>
+        <v>15.605</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>56.19</v>
+        <v>56.186</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>24.46</v>
+        <v>24.464</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>10.81</v>
+        <v>10.811</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>16.22</v>
+        <v>16.225</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>18.02</v>
+        <v>18.017</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>20.23</v>
+        <v>20.235</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>5.19</v>
+        <v>5.185</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>15.4</v>
+        <v>15.399</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>22.97</v>
+        <v>22.975</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>13.27</v>
+        <v>13.271</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.77</v>
+        <v>0.766</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.47</v>
+        <v>0.468</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>238.32</v>
+        <v>238.321</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>44.99</v>
+        <v>44.985</v>
       </c>
       <c r="V3" s="4" t="n">
         <v>15.36</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>30.73</v>
+        <v>30.725</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>16.38</v>
+        <v>16.378</v>
       </c>
       <c r="Y3" s="4" t="n">
         <v>2.11</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>28.05</v>
+        <v>28.047</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>13.15</v>
+        <v>13.145</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>11.01</v>
+        <v>11.009</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>13.73</v>
+        <v>13.731</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>19.19</v>
+        <v>19.192</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.17</v>
+        <v>0.173</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>49.71</v>
+        <v>49.709</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>8.199999999999999</v>
+        <v>8.204000000000001</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>18.3</v>
+        <v>18.299</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44915.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>6.03</v>
+        <v>6.034</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>4.07</v>
+        <v>4.065</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.49</v>
+        <v>0.491</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>11.95</v>
+        <v>11.955</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>9.220000000000001</v>
+        <v>9.221</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>3.72</v>
+        <v>3.724</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>21.72</v>
+        <v>21.722</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>6.06</v>
+        <v>6.063</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2.62</v>
+        <v>2.624</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>3.91</v>
+        <v>3.911</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>4.61</v>
+        <v>4.608</v>
       </c>
       <c r="M4" s="4" t="n">
         <v>5.61</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.34</v>
+        <v>1.335</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>3.59</v>
+        <v>3.594</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>5.95</v>
+        <v>5.946</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>3.37</v>
+        <v>3.366</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.44</v>
+        <v>0.443</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.031</v>
       </c>
       <c r="T4" s="4" t="n">
         <v>55.42</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>11.83</v>
+        <v>11.825</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>4.08</v>
+        <v>4.082</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>8.24</v>
+        <v>8.234999999999999</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>4.37</v>
+        <v>4.368</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.54</v>
+        <v>0.538</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>9.779999999999999</v>
+        <v>9.778</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>3.36</v>
+        <v>3.358</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>2.59</v>
+        <v>2.588</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>3.59</v>
+        <v>3.585</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>5.01</v>
+        <v>5.007</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.14</v>
+        <v>0.141</v>
       </c>
       <c r="AF4" s="4" t="n">
         <v>19.45</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.97</v>
+        <v>1.968</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>4.54</v>
+        <v>4.542</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>10.67</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44915.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>23.49</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>17.41</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>50.44</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>41.32</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>17.89</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>68.51000000000001</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>27.74</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>12.35</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>20.13</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>21.72</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>14.92</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>267.22</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>50.42</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>34.28</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>18.07</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>33.55</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>14.71</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>12.68</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>15.27</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>21.26</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>61.71</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>9.369999999999999</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>20.69</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_234.xlsx
+++ b/DATA_goal/Junction_Flooding_234.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,103 +967,207 @@
         <v>44915.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>12.55</v>
+        <v>12.555</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>9.109999999999999</v>
+        <v>9.114000000000001</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.62</v>
+        <v>0.624</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>26.47</v>
+        <v>26.468</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>21.4</v>
+        <v>21.404</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>9.119999999999999</v>
+        <v>9.124000000000001</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>35.45</v>
+        <v>35.449</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>14.31</v>
+        <v>14.305</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>6.28</v>
+        <v>6.279</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>9.470000000000001</v>
+        <v>9.465999999999999</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>10.48</v>
+        <v>10.482</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>11.63</v>
+        <v>11.626</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.02</v>
+        <v>3.016</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>8.98</v>
+        <v>8.978</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>13.4</v>
+        <v>13.396</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>7.75</v>
+        <v>7.748</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.4</v>
+        <v>0.404</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.25</v>
+        <v>0.247</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>135.53</v>
+        <v>135.533</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>26.18</v>
+        <v>26.181</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>8.859999999999999</v>
+        <v>8.865</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>17.87</v>
+        <v>17.869</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>9.5</v>
+        <v>9.496</v>
       </c>
       <c r="Y5" s="4" t="n">
         <v>1.23</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>17.01</v>
+        <v>17.006</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>7.66</v>
+        <v>7.656</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>6.44</v>
+        <v>6.443</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>8</v>
+        <v>8.002000000000001</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>11.14</v>
+        <v>11.139</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.12</v>
+        <v>0.118</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>31.35</v>
+        <v>31.351</v>
       </c>
       <c r="AG5" s="4" t="n">
         <v>4.79</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>10.67</v>
+        <v>10.674</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44915.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>23.49</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>17.41</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>50.44</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>41.32</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>17.89</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>68.51000000000001</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>27.74</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>12.35</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>20.13</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>21.72</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>14.92</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>267.22</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>50.42</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>34.28</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>18.07</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>33.55</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>14.71</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>12.68</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>15.27</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>21.26</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>61.71</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>9.369999999999999</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>20.69</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_234.xlsx
+++ b/DATA_goal/Junction_Flooding_234.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,207 +967,103 @@
         <v>44915.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>12.555</v>
+        <v>12.55</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>9.114000000000001</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.624</v>
+        <v>0.62</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>26.468</v>
+        <v>26.47</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>21.404</v>
+        <v>21.4</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>9.124000000000001</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>35.449</v>
+        <v>35.45</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>14.305</v>
+        <v>14.31</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>6.279</v>
+        <v>6.28</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>9.465999999999999</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>10.482</v>
+        <v>10.48</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>11.626</v>
+        <v>11.63</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.016</v>
+        <v>3.02</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>8.978</v>
+        <v>8.98</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>13.396</v>
+        <v>13.4</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>7.748</v>
+        <v>7.75</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.404</v>
+        <v>0.4</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.247</v>
+        <v>0.25</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>135.533</v>
+        <v>135.53</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>26.181</v>
+        <v>26.18</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>8.865</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>17.869</v>
+        <v>17.87</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>9.496</v>
+        <v>9.5</v>
       </c>
       <c r="Y5" s="4" t="n">
         <v>1.23</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>17.006</v>
+        <v>17.01</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>7.656</v>
+        <v>7.66</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>6.443</v>
+        <v>6.44</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>8.002000000000001</v>
+        <v>8</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>11.139</v>
+        <v>11.14</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.118</v>
+        <v>0.12</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>31.351</v>
+        <v>31.35</v>
       </c>
       <c r="AG5" s="4" t="n">
         <v>4.79</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>10.674</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44915.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>23.49</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>17.41</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>50.44</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>41.32</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>17.89</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>68.51000000000001</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>27.74</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>12.35</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>20.13</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>21.72</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>14.92</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>267.22</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>50.42</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>34.28</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>18.07</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>33.55</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>14.71</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>12.68</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>15.27</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>21.26</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>61.71</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>9.369999999999999</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>20.69</v>
+        <v>10.67</v>
       </c>
     </row>
   </sheetData>
